--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2348589.502743339</v>
+        <v>-2351325.815764573</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>199.5480581133525</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>196.55015006599</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.5768091643676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35.46617010667083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>63.6900105109164</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>197.6836481114873</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.5711540783809</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>274.8163461825137</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>155.0717718289021</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>164.8097755779805</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>128.2291519102301</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.15392480244381</v>
+        <v>144.4781690474552</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587633</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>253.630393765991</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740356</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176204</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.034789258165</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652699</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2093035084148</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="C2" t="n">
-        <v>51.24678656800313</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800313</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800313</v>
+        <v>1079.501136697314</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800313</v>
+        <v>668.5152319077067</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>252.8104816319956</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.593687005981</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270161</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.94973892659</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.414233809428</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1196.948475548348</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>806.8091435725366</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4404,43 +4404,43 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>717.852508549538</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>402.8973312429828</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>233.9611483150759</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4325513382325</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>580.2476435302228</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2362.658875762289</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2362.658875762289</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188881</v>
+        <v>2362.658875762289</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188881</v>
+        <v>2009.890220492175</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927801</v>
+        <v>1636.424462231096</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1246.285130255284</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084328</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681273</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786115</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.291963913589</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.291963913589</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W7" t="n">
-        <v>743.8747938766288</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8852429786115</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8852429786115</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1323.273454230227</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1323.273454230227</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.273454230227</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>937.4852016319828</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005981</v>
+        <v>2308.115725057707</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270161</v>
+        <v>2308.115725057707</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270161</v>
+        <v>1977.052837714136</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270161</v>
+        <v>1977.052837714136</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.012626270161</v>
+        <v>1977.052837714136</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.873294294349</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084328</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681273</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.8623399222013</v>
+        <v>747.959158223628</v>
       </c>
       <c r="C10" t="n">
-        <v>235.8623399222013</v>
+        <v>747.959158223628</v>
       </c>
       <c r="D10" t="n">
-        <v>85.74570050986557</v>
+        <v>597.8425188112923</v>
       </c>
       <c r="E10" t="n">
-        <v>85.74570050986557</v>
+        <v>449.9294252288992</v>
       </c>
       <c r="F10" t="n">
-        <v>85.74570050986557</v>
+        <v>303.0394777309888</v>
       </c>
       <c r="G10" t="n">
-        <v>85.74570050986557</v>
+        <v>303.0394777309888</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4990,22 +4990,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329318</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959711</v>
+        <v>1150.400202197398</v>
       </c>
       <c r="X10" t="n">
-        <v>638.3033838959711</v>
+        <v>1150.400202197398</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.510804752441</v>
+        <v>929.6076230538678</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397187</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194326</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433613</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.965271928681</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961527</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938885</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400721</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277364</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961527</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622705</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797162</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192576</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345487</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384032</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
@@ -6178,19 +6178,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345471</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213312</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247061</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796382</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119781</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176794</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519666</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275435</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081896</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878354</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601762</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>98.24448441976756</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.13306412194568e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>340.5389251356843</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>101.4704944490528</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>152.690818651423</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.25517101756969</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>188.4476328129116</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833678</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>32.89260457059999</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253361</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948071</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409392978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.081061294197427e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272275</v>
+        <v>31766.15265272276</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="E2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28315.87139004262</v>
+        <v>28315.8713900428</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
@@ -26427,37 +26427,37 @@
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731922</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16108.17168982548</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982548</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982545</v>
       </c>
-      <c r="J4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16108.17168982546</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="P4" t="n">
         <v>16108.17168982543</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16108.17168982543</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1204239.274753084</v>
+        <v>-1204703.571545109</v>
       </c>
       <c r="C6" t="n">
         <v>-186203.6842084942</v>
       </c>
       <c r="D6" t="n">
-        <v>-186203.6842084942</v>
+        <v>-186203.6842084943</v>
       </c>
       <c r="E6" t="n">
-        <v>-576367.9538906849</v>
+        <v>-576402.6918161202</v>
       </c>
       <c r="F6" t="n">
-        <v>-68882.5122661388</v>
+        <v>-68917.25019157447</v>
       </c>
       <c r="G6" t="n">
-        <v>-68882.51226613874</v>
+        <v>-68917.25019157448</v>
       </c>
       <c r="H6" t="n">
-        <v>-68882.5122661388</v>
+        <v>-68917.25019157448</v>
       </c>
       <c r="I6" t="n">
-        <v>-97647.91704415846</v>
+        <v>-97647.91704415843</v>
       </c>
       <c r="J6" t="n">
-        <v>-245825.3768605093</v>
+        <v>-245825.3768605092</v>
       </c>
       <c r="K6" t="n">
         <v>-78220.19905052666</v>
       </c>
       <c r="L6" t="n">
-        <v>-78220.19905052667</v>
+        <v>-78220.19905052673</v>
       </c>
       <c r="M6" t="n">
-        <v>-210827.4927794533</v>
+        <v>-210827.4927794534</v>
       </c>
       <c r="N6" t="n">
         <v>-97647.91704415844</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.3914449365775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>113.1493029115415</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>8.974536868746441</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.6667845776726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>11.4108079386869</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>131.4512265076889</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>242.066270163731</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>78.42903307000364</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>113.097584352685</v>
+        <v>2.773340107673619</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.331285330561</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257884</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021224</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>407.2177391203963</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,13 +34147,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807094</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422168</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000391</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>465.1758167018081</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000391</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124453946</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037701</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>265.083705198378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
         <v>418.6266618111712</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
